--- a/Final Project/Data/label.xlsx
+++ b/Final Project/Data/label.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BF9000-C486-4E57-AD16-8D737EBF69D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62D634-E90C-4511-977B-CCB30E05C918}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Final Project/Data/label.xlsx
+++ b/Final Project/Data/label.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62D634-E90C-4511-977B-CCB30E05C918}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70BF8CC-818F-4D37-9919-6D1E7B44FDA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
